--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/58.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/58.xlsx
@@ -479,13 +479,13 @@
         <v>-7.019021277172779</v>
       </c>
       <c r="E2" t="n">
-        <v>-17.56261327648903</v>
+        <v>-17.57968079946143</v>
       </c>
       <c r="F2" t="n">
-        <v>3.648963919493572</v>
+        <v>3.484522173524888</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.409485419912651</v>
+        <v>-9.267640663682846</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-7.026833246041709</v>
       </c>
       <c r="E3" t="n">
-        <v>-18.19211691166613</v>
+        <v>-18.18660700092712</v>
       </c>
       <c r="F3" t="n">
-        <v>3.542500905959632</v>
+        <v>3.367171341698328</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.249360667007451</v>
+        <v>-9.12638747728394</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-6.99213982652034</v>
       </c>
       <c r="E4" t="n">
-        <v>-18.60829851021913</v>
+        <v>-18.60609845712902</v>
       </c>
       <c r="F4" t="n">
-        <v>3.776346993411041</v>
+        <v>3.611592351002874</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.206376518633535</v>
+        <v>-9.099776612907322</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-6.914203878657196</v>
       </c>
       <c r="E5" t="n">
-        <v>-19.41054542502494</v>
+        <v>-19.39176186064225</v>
       </c>
       <c r="F5" t="n">
-        <v>4.021535576793693</v>
+        <v>3.852351494164101</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.112800927200784</v>
+        <v>-9.032523434446039</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-6.798186275521759</v>
       </c>
       <c r="E6" t="n">
-        <v>-19.97893158535874</v>
+        <v>-19.94903041936069</v>
       </c>
       <c r="F6" t="n">
-        <v>4.099261007963906</v>
+        <v>3.924420344389294</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.515061169638027</v>
+        <v>-8.462176782358609</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-6.648857128537174</v>
       </c>
       <c r="E7" t="n">
-        <v>-20.66643839800492</v>
+        <v>-20.63356960483865</v>
       </c>
       <c r="F7" t="n">
-        <v>4.243051588926742</v>
+        <v>4.06847982072981</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.349284724794675</v>
+        <v>-8.295574095354748</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-6.470206964331817</v>
       </c>
       <c r="E8" t="n">
-        <v>-21.20054773119477</v>
+        <v>-21.17358974733061</v>
       </c>
       <c r="F8" t="n">
-        <v>4.3918778469625</v>
+        <v>4.239526614975697</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.007924487332939</v>
+        <v>-7.969232886988175</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.26770548218148</v>
       </c>
       <c r="E9" t="n">
-        <v>-21.68440296279961</v>
+        <v>-21.65478047019298</v>
       </c>
       <c r="F9" t="n">
-        <v>4.515823949052527</v>
+        <v>4.370967564592704</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.344591278202437</v>
+        <v>-8.303548065554686</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-6.048942630425653</v>
       </c>
       <c r="E10" t="n">
-        <v>-22.36021038201327</v>
+        <v>-22.30881714182826</v>
       </c>
       <c r="F10" t="n">
-        <v>4.902363498971424</v>
+        <v>4.756343530877276</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.096342176521096</v>
+        <v>-8.065795661616612</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.820937938530037</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.21299007179551</v>
+        <v>-23.1702405957512</v>
       </c>
       <c r="F11" t="n">
-        <v>5.070085768547808</v>
+        <v>4.93195665753686</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.663337505339041</v>
+        <v>-7.645130843766649</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.590665949560324</v>
       </c>
       <c r="E12" t="n">
-        <v>-23.98721808824703</v>
+        <v>-23.93534572538906</v>
       </c>
       <c r="F12" t="n">
-        <v>5.402225339058543</v>
+        <v>5.277164543402858</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.101111493657555</v>
+        <v>-7.094198437947738</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.362175371651266</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.5420568105526</v>
+        <v>-24.50465590802071</v>
       </c>
       <c r="F13" t="n">
-        <v>6.178990750073989</v>
+        <v>6.052209024001151</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.838043812162596</v>
+        <v>-6.832343230155773</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-5.144446450533785</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.7215639402439</v>
+        <v>-25.67678552634983</v>
       </c>
       <c r="F14" t="n">
-        <v>6.317765209991371</v>
+        <v>6.199505022887564</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.335238789941595</v>
+        <v>-6.339374889751006</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.942631411275414</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.09937661290536</v>
+        <v>-26.05944809382326</v>
       </c>
       <c r="F15" t="n">
-        <v>6.563711589438394</v>
+        <v>6.460426430367948</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.830199491582414</v>
+        <v>-5.816407603210847</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.760138084050502</v>
       </c>
       <c r="E16" t="n">
-        <v>-27.14011906069301</v>
+        <v>-27.1326951037656</v>
       </c>
       <c r="F16" t="n">
-        <v>6.818815078747148</v>
+        <v>6.72411012672814</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.589015004823766</v>
+        <v>-5.552836354008595</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.601533488089104</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.99478590712588</v>
+        <v>-27.99701529425719</v>
       </c>
       <c r="F17" t="n">
-        <v>7.149023491545451</v>
+        <v>7.052930061576238</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.145826532337926</v>
+        <v>-5.112654620745908</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.471250648102624</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.55214491247135</v>
+        <v>-28.55235513976663</v>
       </c>
       <c r="F18" t="n">
-        <v>7.540701387681476</v>
+        <v>7.46235994164603</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.994692663060984</v>
+        <v>-4.956167288949694</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.373107870649618</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.48658568395167</v>
+        <v>-29.50258006991678</v>
       </c>
       <c r="F19" t="n">
-        <v>7.649364454305527</v>
+        <v>7.568407389596282</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.865627770781296</v>
+        <v>-4.793935374084856</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-4.310360756359509</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.94668278668674</v>
+        <v>-29.97903090062168</v>
       </c>
       <c r="F20" t="n">
-        <v>7.836266297820819</v>
+        <v>7.746655690957135</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.688191044560353</v>
+        <v>-4.622287231994338</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-4.285674450438917</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.79258608831066</v>
+        <v>-30.8210181077452</v>
       </c>
       <c r="F21" t="n">
-        <v>8.151441014503357</v>
+        <v>8.071373749043891</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.602286304901789</v>
+        <v>-4.529361878474886</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-4.304067302878335</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.9601739101982</v>
+        <v>-30.99647478618505</v>
       </c>
       <c r="F22" t="n">
-        <v>8.1772207477126</v>
+        <v>8.071031518563208</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.816102131219448</v>
+        <v>-4.719202015117194</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-4.367390177241444</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.44987639401587</v>
+        <v>-31.48392832684394</v>
       </c>
       <c r="F23" t="n">
-        <v>8.21549189346681</v>
+        <v>8.112143177307095</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.623670820937676</v>
+        <v>-4.507923583363464</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-4.473671606269374</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.46844239759298</v>
+        <v>-31.51220389805874</v>
       </c>
       <c r="F24" t="n">
-        <v>8.593651685615814</v>
+        <v>8.483047683265598</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.811482019730214</v>
+        <v>-4.707776406069214</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.623795537159614</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.55511960033652</v>
+        <v>-31.60530770032883</v>
       </c>
       <c r="F25" t="n">
-        <v>8.539417932441127</v>
+        <v>8.42800724395787</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.635052428923854</v>
+        <v>-4.534920679282568</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-4.815526992919781</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.49112494495203</v>
+        <v>-31.53606958507958</v>
       </c>
       <c r="F26" t="n">
-        <v>8.168845878949575</v>
+        <v>8.054687568607111</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.664239799919335</v>
+        <v>-4.560509741224001</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-5.044577130317506</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.60380433071726</v>
+        <v>-31.64769050085812</v>
       </c>
       <c r="F27" t="n">
-        <v>8.374633955991758</v>
+        <v>8.238338222555903</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.442176219017192</v>
+        <v>-4.339399516660906</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-5.303873918553604</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.31367110720706</v>
+        <v>-31.34847105808576</v>
       </c>
       <c r="F28" t="n">
-        <v>8.353200549887204</v>
+        <v>8.224336106889059</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.662958880120204</v>
+        <v>-4.537238068537486</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-5.585761028908721</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.05972631252576</v>
+        <v>-31.10203088894518</v>
       </c>
       <c r="F29" t="n">
-        <v>8.195402964250658</v>
+        <v>8.045466901656109</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.559292378514139</v>
+        <v>-4.423661550012185</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-5.881857178938578</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.34192712239439</v>
+        <v>-31.3762748401379</v>
       </c>
       <c r="F30" t="n">
-        <v>7.813336855614987</v>
+        <v>7.66740977865131</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.809365079756839</v>
+        <v>-4.67548451571324</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-6.181751827780628</v>
       </c>
       <c r="E31" t="n">
-        <v>-31.06817451639179</v>
+        <v>-31.09167597240105</v>
       </c>
       <c r="F31" t="n">
-        <v>7.862373594490144</v>
+        <v>7.720020381546182</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.748536056318684</v>
+        <v>-4.618024018006389</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-6.472755205660702</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.8511783911072</v>
+        <v>-30.89308451346696</v>
       </c>
       <c r="F32" t="n">
-        <v>7.746249903387181</v>
+        <v>7.590539923682806</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.937613507889752</v>
+        <v>-4.788415685332109</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-6.747497736574678</v>
       </c>
       <c r="E33" t="n">
-        <v>-30.34991585055272</v>
+        <v>-30.38127882960397</v>
       </c>
       <c r="F33" t="n">
-        <v>7.802595707528376</v>
+        <v>7.635792571242971</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.833516773679399</v>
+        <v>-4.652036838779516</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-6.997507817619149</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.98440880817529</v>
+        <v>-30.00387927802278</v>
       </c>
       <c r="F34" t="n">
-        <v>7.792612355506135</v>
+        <v>7.627388368438744</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.908455470935471</v>
+        <v>-4.718815783574708</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-7.215453837256937</v>
       </c>
       <c r="E35" t="n">
-        <v>-29.7378659698905</v>
+        <v>-29.74932091297968</v>
       </c>
       <c r="F35" t="n">
-        <v>7.891262736066745</v>
+        <v>7.716783859000284</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.825420578307788</v>
+        <v>-4.64667359824651</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-7.394573333482855</v>
       </c>
       <c r="E36" t="n">
-        <v>-29.39219118386871</v>
+        <v>-29.41112141845741</v>
       </c>
       <c r="F36" t="n">
-        <v>7.978951963231731</v>
+        <v>7.808002949123183</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.001762166990543</v>
+        <v>-4.808157495060711</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-7.531886797262071</v>
       </c>
       <c r="E37" t="n">
-        <v>-29.29250677835575</v>
+        <v>-29.28950492813946</v>
       </c>
       <c r="F37" t="n">
-        <v>8.143628381530027</v>
+        <v>7.947584095173605</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.051444254772132</v>
+        <v>-4.869211412814745</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.625784462409539</v>
       </c>
       <c r="E38" t="n">
-        <v>-28.65943661266923</v>
+        <v>-28.65070729090835</v>
       </c>
       <c r="F38" t="n">
-        <v>7.897584221945666</v>
+        <v>7.721614197784796</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.037828370647775</v>
+        <v>-4.85723823499767</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-7.675143252456809</v>
       </c>
       <c r="E39" t="n">
-        <v>-28.34474835216995</v>
+        <v>-28.3259305647392</v>
       </c>
       <c r="F39" t="n">
-        <v>7.781172079437554</v>
+        <v>7.611973329787362</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.142883350204043</v>
+        <v>-4.966722654775364</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.680943184193026</v>
       </c>
       <c r="E40" t="n">
-        <v>-27.90346414785877</v>
+        <v>-27.88327010499498</v>
       </c>
       <c r="F40" t="n">
-        <v>7.82198550876256</v>
+        <v>7.655773942308053</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.982538591989833</v>
+        <v>-4.809868647464131</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-7.649178435709554</v>
       </c>
       <c r="E41" t="n">
-        <v>-27.67901962061244</v>
+        <v>-27.65828045348299</v>
       </c>
       <c r="F41" t="n">
-        <v>7.597091192884473</v>
+        <v>7.433436577021362</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.499081723506865</v>
+        <v>-5.316071529457638</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-7.586245922264562</v>
       </c>
       <c r="E42" t="n">
-        <v>-27.03364871364877</v>
+        <v>-27.02421537489906</v>
       </c>
       <c r="F42" t="n">
-        <v>7.500523529249168</v>
+        <v>7.335514658483921</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.217122919478147</v>
+        <v>-5.055639022663946</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-7.500565203952486</v>
       </c>
       <c r="E43" t="n">
-        <v>-26.68743124786475</v>
+        <v>-26.65642272181135</v>
       </c>
       <c r="F43" t="n">
-        <v>7.514041633236188</v>
+        <v>7.334277739746592</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.329511409334788</v>
+        <v>-5.15201601503144</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-7.399630271634329</v>
       </c>
       <c r="E44" t="n">
-        <v>-26.11315383425632</v>
+        <v>-26.07109370818025</v>
       </c>
       <c r="F44" t="n">
-        <v>7.608150126417434</v>
+        <v>7.434375266339809</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.430288507882505</v>
+        <v>-5.268027258976465</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-7.296614891460053</v>
       </c>
       <c r="E45" t="n">
-        <v>-25.42066023460589</v>
+        <v>-25.38371400971261</v>
       </c>
       <c r="F45" t="n">
-        <v>7.671775661783465</v>
+        <v>7.491547312641512</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.484414702906121</v>
+        <v>-5.327286911210341</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-7.202435116440667</v>
       </c>
       <c r="E46" t="n">
-        <v>-25.09998538519807</v>
+        <v>-25.06073154906361</v>
       </c>
       <c r="F46" t="n">
-        <v>7.502308016755592</v>
+        <v>7.330136750930316</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.373204463704406</v>
+        <v>-5.223248845082391</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-7.124950044413209</v>
       </c>
       <c r="E47" t="n">
-        <v>-24.88763137193362</v>
+        <v>-24.84746329151505</v>
       </c>
       <c r="F47" t="n">
-        <v>7.604605596438921</v>
+        <v>7.447037794125118</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.270696656725801</v>
+        <v>-5.129404358271959</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-7.073035907494691</v>
       </c>
       <c r="E48" t="n">
-        <v>-24.46370069749656</v>
+        <v>-24.42243259053293</v>
       </c>
       <c r="F48" t="n">
-        <v>7.582913072970419</v>
+        <v>7.419106897894434</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.2201443257219</v>
+        <v>-5.082328111150434</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.054956087765962</v>
       </c>
       <c r="E49" t="n">
-        <v>-23.66824950223576</v>
+        <v>-23.62540713506099</v>
       </c>
       <c r="F49" t="n">
-        <v>7.859371744273859</v>
+        <v>7.694954443339509</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.335960009392248</v>
+        <v>-5.221239463260089</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.076024792464273</v>
       </c>
       <c r="E50" t="n">
-        <v>-23.60817827486198</v>
+        <v>-23.56653371436959</v>
       </c>
       <c r="F50" t="n">
-        <v>7.594539131299943</v>
+        <v>7.432781450101195</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.356503616247025</v>
+        <v>-5.244956035571493</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.138760697626373</v>
       </c>
       <c r="E51" t="n">
-        <v>-22.93834033303283</v>
+        <v>-22.89760512781769</v>
       </c>
       <c r="F51" t="n">
-        <v>7.673105471651266</v>
+        <v>7.531079822167387</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.174427222509379</v>
+        <v>-5.057995523973799</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-7.24193694027865</v>
       </c>
       <c r="E52" t="n">
-        <v>-22.42378702731063</v>
+        <v>-22.38537898936415</v>
       </c>
       <c r="F52" t="n">
-        <v>7.512081141482555</v>
+        <v>7.365640718797851</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.370241725543056</v>
+        <v>-5.255472289342228</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.386130954849552</v>
       </c>
       <c r="E53" t="n">
-        <v>-22.07426703738801</v>
+        <v>-22.03000685822183</v>
       </c>
       <c r="F53" t="n">
-        <v>7.884926583167223</v>
+        <v>7.752928286767387</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.307461988365001</v>
+        <v>-5.200539408185571</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.566574388662765</v>
       </c>
       <c r="E54" t="n">
-        <v>-21.31229576115185</v>
+        <v>-21.26350347262004</v>
       </c>
       <c r="F54" t="n">
-        <v>7.832438205444024</v>
+        <v>7.697491837903438</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.318217803472214</v>
+        <v>-5.206660444782949</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.773008314470373</v>
       </c>
       <c r="E55" t="n">
-        <v>-21.04002696873336</v>
+        <v>-20.99372807370367</v>
       </c>
       <c r="F55" t="n">
-        <v>7.628977295670492</v>
+        <v>7.511738911001872</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.476743851131931</v>
+        <v>-5.389118181056214</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.998917891748722</v>
       </c>
       <c r="E56" t="n">
-        <v>-20.53298806656561</v>
+        <v>-20.48511980033165</v>
       </c>
       <c r="F56" t="n">
-        <v>7.520426676204379</v>
+        <v>7.38405760766552</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.513465181709329</v>
+        <v>-5.413162316827703</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.235592843205373</v>
       </c>
       <c r="E57" t="n">
-        <v>-20.25069681006994</v>
+        <v>-20.21915782677147</v>
       </c>
       <c r="F57" t="n">
-        <v>7.437362449535494</v>
+        <v>7.320852526890044</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.762134737981224</v>
+        <v>-5.673374818312383</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.473149957917894</v>
       </c>
       <c r="E58" t="n">
-        <v>-19.76460241332005</v>
+        <v>-19.73928713576317</v>
       </c>
       <c r="F58" t="n">
-        <v>7.073087436888528</v>
+        <v>6.950681371961578</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.043536195227115</v>
+        <v>-5.955186952135095</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.700785674831677</v>
       </c>
       <c r="E59" t="n">
-        <v>-19.24614279111119</v>
+        <v>-19.19287706129615</v>
       </c>
       <c r="F59" t="n">
-        <v>7.399394422207033</v>
+        <v>7.258767028687091</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.929627224234864</v>
+        <v>-5.837356997635577</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.909048232749946</v>
       </c>
       <c r="E60" t="n">
-        <v>-18.83203413146976</v>
+        <v>-18.75513983146692</v>
       </c>
       <c r="F60" t="n">
-        <v>7.251809971915471</v>
+        <v>7.113045290011824</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.189282378936716</v>
+        <v>-6.094851211302254</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-9.091382547089465</v>
       </c>
       <c r="E61" t="n">
-        <v>-18.53965685380765</v>
+        <v>-18.46359368497219</v>
       </c>
       <c r="F61" t="n">
-        <v>6.963084782382942</v>
+        <v>6.814972319349754</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.275915580618449</v>
+        <v>-6.160642576710329</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-9.241105329560607</v>
       </c>
       <c r="E62" t="n">
-        <v>-18.18282779861899</v>
+        <v>-18.10138672222992</v>
       </c>
       <c r="F62" t="n">
-        <v>7.096926234371606</v>
+        <v>6.946374156911826</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.277807626275945</v>
+        <v>-6.171999739662172</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.350728763676644</v>
       </c>
       <c r="E63" t="n">
-        <v>-17.61513098825343</v>
+        <v>-17.52583327782923</v>
       </c>
       <c r="F63" t="n">
-        <v>6.934122305703338</v>
+        <v>6.778162986648751</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.164333776894849</v>
+        <v>-6.049823458057968</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.421693381429808</v>
       </c>
       <c r="E64" t="n">
-        <v>-17.6276957359014</v>
+        <v>-17.55181834932688</v>
       </c>
       <c r="F64" t="n">
-        <v>6.739950508976944</v>
+        <v>6.600085800528241</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.331572034791409</v>
+        <v>-6.2093077510636</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.455287646878752</v>
       </c>
       <c r="E65" t="n">
-        <v>-17.39435810516415</v>
+        <v>-17.30623375638801</v>
       </c>
       <c r="F65" t="n">
-        <v>6.922696696655358</v>
+        <v>6.758944300654909</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.295794282539325</v>
+        <v>-6.165233354158362</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.454742134073648</v>
       </c>
       <c r="E66" t="n">
-        <v>-17.34210928877743</v>
+        <v>-17.25824326498237</v>
       </c>
       <c r="F66" t="n">
-        <v>6.843563231507472</v>
+        <v>6.685164298026295</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.339242886565598</v>
+        <v>-6.227709972910668</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.423226762476908</v>
       </c>
       <c r="E67" t="n">
-        <v>-17.21093234553124</v>
+        <v>-17.11459935422554</v>
       </c>
       <c r="F67" t="n">
-        <v>6.685716755802256</v>
+        <v>6.527044037936531</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.398424314689604</v>
+        <v>-6.277284502541185</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.367788940376542</v>
       </c>
       <c r="E68" t="n">
-        <v>-16.86616935929013</v>
+        <v>-16.77662230951571</v>
       </c>
       <c r="F68" t="n">
-        <v>6.582822717281164</v>
+        <v>6.425577589420579</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.618923413394335</v>
+        <v>-6.486744223740422</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.295896077294012</v>
       </c>
       <c r="E69" t="n">
-        <v>-16.62940942374604</v>
+        <v>-16.55736990756204</v>
       </c>
       <c r="F69" t="n">
-        <v>6.698868184274257</v>
+        <v>6.542991978336408</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.297872110457765</v>
+        <v>-6.15580734891895</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.212278327360597</v>
       </c>
       <c r="E70" t="n">
-        <v>-16.4513957947148</v>
+        <v>-16.38234835073336</v>
       </c>
       <c r="F70" t="n">
-        <v>6.661550394859096</v>
+        <v>6.501107856507548</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.203084045322017</v>
+        <v>-6.060510827069043</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.120134259105699</v>
       </c>
       <c r="E71" t="n">
-        <v>-16.54282511213297</v>
+        <v>-16.46566680575932</v>
       </c>
       <c r="F71" t="n">
-        <v>6.52558711389019</v>
+        <v>6.363775653615907</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.941619958079405</v>
+        <v>-5.777989787250629</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.025646261569005</v>
       </c>
       <c r="E72" t="n">
-        <v>-16.51030832746112</v>
+        <v>-16.42763522134159</v>
       </c>
       <c r="F72" t="n">
-        <v>6.457087238677845</v>
+        <v>6.294346867098848</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.885523493288424</v>
+        <v>-5.733001146061278</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.931874611249253</v>
       </c>
       <c r="E73" t="n">
-        <v>-16.46312452218853</v>
+        <v>-16.3890951802097</v>
       </c>
       <c r="F73" t="n">
-        <v>6.497656217659506</v>
+        <v>6.33844570903842</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.045731359310359</v>
+        <v>-5.865043443522917</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-8.840656837787158</v>
       </c>
       <c r="E74" t="n">
-        <v>-16.56691813797313</v>
+        <v>-16.50415795682254</v>
       </c>
       <c r="F74" t="n">
-        <v>6.378574677402058</v>
+        <v>6.234798763459824</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.709993479745576</v>
+        <v>-5.52555569569121</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-8.749965415873895</v>
       </c>
       <c r="E75" t="n">
-        <v>-16.87280374160853</v>
+        <v>-16.8057950134906</v>
       </c>
       <c r="F75" t="n">
-        <v>6.163722381628614</v>
+        <v>6.012515177248669</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.742608044554766</v>
+        <v>-5.559764076739014</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-8.662133022421251</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.94201252281658</v>
+        <v>-16.8609870120112</v>
       </c>
       <c r="F76" t="n">
-        <v>6.052399695268961</v>
+        <v>5.903363209937925</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.587655860914763</v>
+        <v>-5.379012603862301</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-8.575852263265062</v>
       </c>
       <c r="E77" t="n">
-        <v>-17.08890273413304</v>
+        <v>-17.01410581807611</v>
       </c>
       <c r="F77" t="n">
-        <v>6.031978313585856</v>
+        <v>5.880247985471152</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.422236313572697</v>
+        <v>-5.204548393816442</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-8.486483063125739</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.53215965271502</v>
+        <v>-17.45398443291305</v>
       </c>
       <c r="F78" t="n">
-        <v>5.976595643797444</v>
+        <v>5.807015551611633</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.025547185398084</v>
+        <v>-4.794834951348368</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-8.390326569684563</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.63174872259407</v>
+        <v>-17.56822096736538</v>
       </c>
       <c r="F79" t="n">
-        <v>6.049808521629496</v>
+        <v>5.892186940240157</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.821118252264903</v>
+        <v>-4.591530489794577</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-8.285415907020921</v>
       </c>
       <c r="E80" t="n">
-        <v>-18.07185712075376</v>
+        <v>-17.98791776185569</v>
       </c>
       <c r="F80" t="n">
-        <v>5.724855791213127</v>
+        <v>5.564217692586903</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.340890663755315</v>
+        <v>-4.133714108762927</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-8.169121979136943</v>
       </c>
       <c r="E81" t="n">
-        <v>-18.91371965820218</v>
+        <v>-18.82050096427071</v>
       </c>
       <c r="F81" t="n">
-        <v>5.831993487694701</v>
+        <v>5.663518311060812</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.218362373656692</v>
+        <v>-4.006956827724423</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-8.039735081012534</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.65056632814926</v>
+        <v>-19.57061150984774</v>
       </c>
       <c r="F82" t="n">
-        <v>5.572470336178255</v>
+        <v>5.420911123303891</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.135112364726865</v>
+        <v>-3.911445189572373</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-7.894846170065058</v>
       </c>
       <c r="E83" t="n">
-        <v>-20.4133687355528</v>
+        <v>-20.31973447603765</v>
       </c>
       <c r="F83" t="n">
-        <v>5.257784520182407</v>
+        <v>5.093963678085821</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.049002286779892</v>
+        <v>-3.818490502011719</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-7.739228039450356</v>
       </c>
       <c r="E84" t="n">
-        <v>-21.52454221626523</v>
+        <v>-21.45006308565465</v>
       </c>
       <c r="F84" t="n">
-        <v>5.142848857748104</v>
+        <v>4.983555236010281</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.721199265360112</v>
+        <v>-3.47502799159721</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-7.575296189852563</v>
       </c>
       <c r="E85" t="n">
-        <v>-22.57756096029571</v>
+        <v>-22.48663032157796</v>
       </c>
       <c r="F85" t="n">
-        <v>5.260810815433027</v>
+        <v>5.089490236802594</v>
       </c>
       <c r="G85" t="n">
-        <v>-3.771917822597487</v>
+        <v>-3.537201491923768</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-7.404279958172588</v>
       </c>
       <c r="E86" t="n">
-        <v>-23.39344331525334</v>
+        <v>-23.3087168262497</v>
       </c>
       <c r="F86" t="n">
-        <v>4.89197435937923</v>
+        <v>4.729385547013107</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.707646938325023</v>
+        <v>-3.470994560932005</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.230806450376588</v>
       </c>
       <c r="E87" t="n">
-        <v>-24.1061187352504</v>
+        <v>-24.0234554071446</v>
       </c>
       <c r="F87" t="n">
-        <v>4.640425178062722</v>
+        <v>4.474428727910359</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.710546119397104</v>
+        <v>-3.456968000230826</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.059415068409431</v>
       </c>
       <c r="E88" t="n">
-        <v>-25.43513169493196</v>
+        <v>-25.3506887683266</v>
       </c>
       <c r="F88" t="n">
-        <v>4.692786441607381</v>
+        <v>4.5454708866935</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.671971855217145</v>
+        <v>-3.415919898576208</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.89412980437998</v>
       </c>
       <c r="E89" t="n">
-        <v>-26.86131366609345</v>
+        <v>-26.78179396940308</v>
       </c>
       <c r="F89" t="n">
-        <v>4.168323118965947</v>
+        <v>4.019521305964524</v>
       </c>
       <c r="G89" t="n">
-        <v>-3.666246828175987</v>
+        <v>-3.419620876774463</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-6.737593867418243</v>
       </c>
       <c r="E90" t="n">
-        <v>-28.22066291338422</v>
+        <v>-28.14638912106204</v>
       </c>
       <c r="F90" t="n">
-        <v>4.34817012557228</v>
+        <v>4.193838845804376</v>
       </c>
       <c r="G90" t="n">
-        <v>-3.661524047542548</v>
+        <v>-3.420926241607929</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.592490975861608</v>
       </c>
       <c r="E91" t="n">
-        <v>-30.04948882308422</v>
+        <v>-29.97786242798049</v>
       </c>
       <c r="F91" t="n">
-        <v>3.856238254623298</v>
+        <v>3.71330813886904</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.013860105420507</v>
+        <v>-3.768461294742578</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.463947731365415</v>
       </c>
       <c r="E92" t="n">
-        <v>-31.76076345167613</v>
+        <v>-31.67604674068622</v>
       </c>
       <c r="F92" t="n">
-        <v>3.539616391908152</v>
+        <v>3.400240584146141</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.063405301009824</v>
+        <v>-3.837718966019295</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.354285130339909</v>
       </c>
       <c r="E93" t="n">
-        <v>-33.42634053308298</v>
+        <v>-33.33151824489916</v>
       </c>
       <c r="F93" t="n">
-        <v>3.239710043670989</v>
+        <v>3.108772661761273</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.462421596453087</v>
+        <v>-4.236251249782734</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.262951377065503</v>
       </c>
       <c r="E94" t="n">
-        <v>-35.33291142998067</v>
+        <v>-35.24316881993158</v>
       </c>
       <c r="F94" t="n">
-        <v>2.78579020111227</v>
+        <v>2.662939236560431</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.49071916819879</v>
+        <v>-4.257591764756818</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.193989877920405</v>
       </c>
       <c r="E95" t="n">
-        <v>-37.54647773507255</v>
+        <v>-37.46208614303929</v>
       </c>
       <c r="F95" t="n">
-        <v>2.185341933745244</v>
+        <v>2.081792768303985</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.704256321125035</v>
+        <v>-4.469466655348311</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-6.150809134689888</v>
       </c>
       <c r="E96" t="n">
-        <v>-39.48144398385328</v>
+        <v>-39.39175026387286</v>
       </c>
       <c r="F96" t="n">
-        <v>1.997843631392189</v>
+        <v>1.889390792063415</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.002818192473796</v>
+        <v>-4.777312750737345</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-6.134660336117651</v>
       </c>
       <c r="E97" t="n">
-        <v>-41.60842108832523</v>
+        <v>-41.5047790317535</v>
       </c>
       <c r="F97" t="n">
-        <v>1.373996577160108</v>
+        <v>1.300446357854239</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.441430554532205</v>
+        <v>-5.222764833402566</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-6.148915219967122</v>
       </c>
       <c r="E98" t="n">
-        <v>-43.55056928819346</v>
+        <v>-43.43752078240978</v>
       </c>
       <c r="F98" t="n">
-        <v>0.999366647969016</v>
+        <v>0.9240906092391266</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.724489385105979</v>
+        <v>-5.491249534506068</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-6.192835901603398</v>
       </c>
       <c r="E99" t="n">
-        <v>-46.06900428349242</v>
+        <v>-45.93620418996641</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8256797900149955</v>
+        <v>0.7524326891348758</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.064871821194331</v>
+        <v>-5.810447903840077</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-6.274748457640427</v>
       </c>
       <c r="E100" t="n">
-        <v>-48.62828448666102</v>
+        <v>-48.51616122542691</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.0589077784433937</v>
+        <v>-0.1255009409776422</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.374844634570473</v>
+        <v>-6.135796643812667</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-6.385660531470188</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.54809848090947</v>
+        <v>-50.42431860505292</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.2025712452276895</v>
+        <v>-0.2566974402513049</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.844643971432931</v>
+        <v>-6.590141829968807</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-6.539142302828201</v>
       </c>
       <c r="E102" t="n">
-        <v>-52.86761934282113</v>
+        <v>-52.73665751587708</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.627680170319678</v>
+        <v>-0.6729377068867097</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.155677699299194</v>
+        <v>-6.902818264142352</v>
       </c>
     </row>
   </sheetData>
